--- a/030-試験/納品物/033-1-総合試験計画書兼結果書.xlsx
+++ b/030-試験/納品物/033-1-総合試験計画書兼結果書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\030-試験\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\030-試験\納品物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A56A7C-F80D-4BB8-930E-61F7AFBE1797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B79D28-92E0-4469-9BB4-0C26197817CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8C3D73FB-0868-4F7E-BB2A-47AEE9ECD866}"/>
+    <workbookView xWindow="28680" yWindow="-8370" windowWidth="29040" windowHeight="15720" xr2:uid="{8C3D73FB-0868-4F7E-BB2A-47AEE9ECD866}"/>
   </bookViews>
   <sheets>
     <sheet name="総合試験_商品検索画面" sheetId="1" r:id="rId1"/>
@@ -2665,52 +2665,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2761,6 +2737,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2773,10 +2752,22 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2797,6 +2788,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2804,6 +2819,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2815,38 +2836,23 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2860,9 +2866,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2875,6 +2878,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2884,17 +2896,25 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2905,26 +2925,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4774,142 +4774,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:86" customFormat="1" ht="14.4" customHeight="1" thickTop="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="130" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="129"/>
-      <c r="V1" s="129"/>
-      <c r="W1" s="129"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="109" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="134"/>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="134"/>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="134"/>
-      <c r="AJ1" s="134"/>
-      <c r="AK1" s="134"/>
-      <c r="AL1" s="134"/>
-      <c r="AM1" s="109" t="s">
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="137"/>
+      <c r="AG1" s="137"/>
+      <c r="AH1" s="137"/>
+      <c r="AI1" s="137"/>
+      <c r="AJ1" s="137"/>
+      <c r="AK1" s="137"/>
+      <c r="AL1" s="137"/>
+      <c r="AM1" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="AN1" s="109"/>
-      <c r="AO1" s="109"/>
-      <c r="AP1" s="109"/>
-      <c r="AQ1" s="110">
+      <c r="AN1" s="136"/>
+      <c r="AO1" s="136"/>
+      <c r="AP1" s="136"/>
+      <c r="AQ1" s="160">
         <v>45590</v>
       </c>
-      <c r="AR1" s="110"/>
-      <c r="AS1" s="110"/>
-      <c r="AT1" s="110"/>
-      <c r="AU1" s="110"/>
-      <c r="AV1" s="110"/>
-      <c r="AW1" s="110"/>
-      <c r="AX1" s="110"/>
-      <c r="AY1" s="110"/>
-      <c r="AZ1" s="110"/>
-      <c r="BA1" s="105" t="s">
+      <c r="AR1" s="160"/>
+      <c r="AS1" s="160"/>
+      <c r="AT1" s="160"/>
+      <c r="AU1" s="160"/>
+      <c r="AV1" s="160"/>
+      <c r="AW1" s="160"/>
+      <c r="AX1" s="160"/>
+      <c r="AY1" s="160"/>
+      <c r="AZ1" s="160"/>
+      <c r="BA1" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="BB1" s="106"/>
-      <c r="BC1" s="140"/>
-      <c r="BD1" s="141"/>
-      <c r="BE1" s="141"/>
-      <c r="BF1" s="142"/>
+      <c r="BB1" s="157"/>
+      <c r="BC1" s="147"/>
+      <c r="BD1" s="148"/>
+      <c r="BE1" s="148"/>
+      <c r="BF1" s="149"/>
     </row>
     <row r="2" spans="1:86" customFormat="1" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A2" s="131"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="132"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="138" t="s">
+      <c r="A2" s="133"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="138"/>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="139" t="s">
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="144"/>
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="139"/>
-      <c r="AF2" s="139"/>
-      <c r="AG2" s="139"/>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="139"/>
-      <c r="AJ2" s="139"/>
-      <c r="AK2" s="139"/>
-      <c r="AL2" s="139"/>
-      <c r="AM2" s="138" t="s">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="145"/>
+      <c r="AG2" s="145"/>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="145"/>
+      <c r="AJ2" s="145"/>
+      <c r="AK2" s="145"/>
+      <c r="AL2" s="145"/>
+      <c r="AM2" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="138"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="138"/>
-      <c r="AQ2" s="139" t="s">
+      <c r="AN2" s="144"/>
+      <c r="AO2" s="144"/>
+      <c r="AP2" s="144"/>
+      <c r="AQ2" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="AR2" s="139"/>
-      <c r="AS2" s="139"/>
-      <c r="AT2" s="139"/>
-      <c r="AU2" s="139"/>
-      <c r="AV2" s="139"/>
-      <c r="AW2" s="139"/>
-      <c r="AX2" s="139"/>
-      <c r="AY2" s="139"/>
-      <c r="AZ2" s="139"/>
-      <c r="BA2" s="107"/>
-      <c r="BB2" s="108"/>
-      <c r="BC2" s="143"/>
-      <c r="BD2" s="144"/>
-      <c r="BE2" s="144"/>
-      <c r="BF2" s="145"/>
+      <c r="AR2" s="145"/>
+      <c r="AS2" s="145"/>
+      <c r="AT2" s="145"/>
+      <c r="AU2" s="145"/>
+      <c r="AV2" s="145"/>
+      <c r="AW2" s="145"/>
+      <c r="AX2" s="145"/>
+      <c r="AY2" s="145"/>
+      <c r="AZ2" s="145"/>
+      <c r="BA2" s="158"/>
+      <c r="BB2" s="159"/>
+      <c r="BC2" s="150"/>
+      <c r="BD2" s="151"/>
+      <c r="BE2" s="151"/>
+      <c r="BF2" s="152"/>
     </row>
     <row r="3" spans="1:86" ht="14.4" customHeight="1" thickTop="1"/>
     <row r="4" spans="1:86" ht="14.4" customHeight="1">
@@ -4973,200 +4973,200 @@
       <c r="BF4" s="2"/>
     </row>
     <row r="5" spans="1:86" s="4" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="121" t="s">
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="121" t="s">
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="123"/>
-      <c r="S5" s="121" t="s">
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="122"/>
-      <c r="AF5" s="122"/>
-      <c r="AG5" s="122"/>
-      <c r="AH5" s="123"/>
-      <c r="AI5" s="111" t="s">
+      <c r="T5" s="124"/>
+      <c r="U5" s="124"/>
+      <c r="V5" s="124"/>
+      <c r="W5" s="124"/>
+      <c r="X5" s="124"/>
+      <c r="Y5" s="124"/>
+      <c r="Z5" s="124"/>
+      <c r="AA5" s="124"/>
+      <c r="AB5" s="124"/>
+      <c r="AC5" s="124"/>
+      <c r="AD5" s="124"/>
+      <c r="AE5" s="124"/>
+      <c r="AF5" s="124"/>
+      <c r="AG5" s="124"/>
+      <c r="AH5" s="125"/>
+      <c r="AI5" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="112"/>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="112"/>
-      <c r="AN5" s="112"/>
-      <c r="AO5" s="112"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="112"/>
-      <c r="AV5" s="112"/>
-      <c r="AW5" s="115"/>
-      <c r="AX5" s="111" t="s">
+      <c r="AJ5" s="118"/>
+      <c r="AK5" s="118"/>
+      <c r="AL5" s="118"/>
+      <c r="AM5" s="118"/>
+      <c r="AN5" s="118"/>
+      <c r="AO5" s="118"/>
+      <c r="AP5" s="118"/>
+      <c r="AQ5" s="118"/>
+      <c r="AR5" s="118"/>
+      <c r="AS5" s="118"/>
+      <c r="AT5" s="118"/>
+      <c r="AU5" s="118"/>
+      <c r="AV5" s="118"/>
+      <c r="AW5" s="119"/>
+      <c r="AX5" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="AY5" s="112"/>
-      <c r="AZ5" s="112"/>
-      <c r="BA5" s="112"/>
-      <c r="BB5" s="112"/>
-      <c r="BC5" s="112"/>
-      <c r="BD5" s="112"/>
-      <c r="BE5" s="112"/>
-      <c r="BF5" s="112"/>
-      <c r="BG5" s="112"/>
-      <c r="BH5" s="112"/>
-      <c r="BI5" s="112"/>
-      <c r="BJ5" s="112"/>
+      <c r="AY5" s="118"/>
+      <c r="AZ5" s="118"/>
+      <c r="BA5" s="118"/>
+      <c r="BB5" s="118"/>
+      <c r="BC5" s="118"/>
+      <c r="BD5" s="118"/>
+      <c r="BE5" s="118"/>
+      <c r="BF5" s="118"/>
+      <c r="BG5" s="118"/>
+      <c r="BH5" s="118"/>
+      <c r="BI5" s="118"/>
+      <c r="BJ5" s="118"/>
       <c r="BK5" s="96"/>
-      <c r="BL5" s="111" t="s">
+      <c r="BL5" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="BM5" s="112"/>
-      <c r="BN5" s="115"/>
-      <c r="BO5" s="111" t="s">
+      <c r="BM5" s="118"/>
+      <c r="BN5" s="119"/>
+      <c r="BO5" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="BP5" s="112"/>
-      <c r="BQ5" s="112"/>
-      <c r="BR5" s="115"/>
-      <c r="BS5" s="111" t="s">
+      <c r="BP5" s="118"/>
+      <c r="BQ5" s="118"/>
+      <c r="BR5" s="119"/>
+      <c r="BS5" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="BT5" s="112"/>
-      <c r="BU5" s="112"/>
-      <c r="BV5" s="115"/>
-      <c r="BW5" s="111" t="s">
+      <c r="BT5" s="118"/>
+      <c r="BU5" s="118"/>
+      <c r="BV5" s="119"/>
+      <c r="BW5" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="BX5" s="112"/>
-      <c r="BY5" s="112"/>
-      <c r="BZ5" s="112"/>
-      <c r="CA5" s="112"/>
-      <c r="CB5" s="112"/>
-      <c r="CC5" s="112"/>
-      <c r="CD5" s="112"/>
-      <c r="CE5" s="112"/>
-      <c r="CF5" s="112"/>
-      <c r="CG5" s="112"/>
-      <c r="CH5" s="115"/>
+      <c r="BX5" s="118"/>
+      <c r="BY5" s="118"/>
+      <c r="BZ5" s="118"/>
+      <c r="CA5" s="118"/>
+      <c r="CB5" s="118"/>
+      <c r="CC5" s="118"/>
+      <c r="CD5" s="118"/>
+      <c r="CE5" s="118"/>
+      <c r="CF5" s="118"/>
+      <c r="CG5" s="118"/>
+      <c r="CH5" s="119"/>
     </row>
     <row r="6" spans="1:86" s="4" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A6" s="124"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="136"/>
-      <c r="P6" s="136"/>
-      <c r="Q6" s="136"/>
-      <c r="R6" s="137"/>
-      <c r="S6" s="135"/>
-      <c r="T6" s="136"/>
-      <c r="U6" s="136"/>
-      <c r="V6" s="136"/>
-      <c r="W6" s="136"/>
-      <c r="X6" s="136"/>
-      <c r="Y6" s="136"/>
-      <c r="Z6" s="136"/>
-      <c r="AA6" s="136"/>
-      <c r="AB6" s="136"/>
-      <c r="AC6" s="136"/>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="136"/>
-      <c r="AF6" s="136"/>
-      <c r="AG6" s="136"/>
-      <c r="AH6" s="137"/>
-      <c r="AI6" s="113"/>
-      <c r="AJ6" s="114"/>
-      <c r="AK6" s="114"/>
-      <c r="AL6" s="114"/>
-      <c r="AM6" s="114"/>
-      <c r="AN6" s="114"/>
-      <c r="AO6" s="114"/>
-      <c r="AP6" s="114"/>
-      <c r="AQ6" s="114"/>
-      <c r="AR6" s="114"/>
-      <c r="AS6" s="114"/>
-      <c r="AT6" s="114"/>
-      <c r="AU6" s="114"/>
-      <c r="AV6" s="114"/>
-      <c r="AW6" s="117"/>
-      <c r="AX6" s="113"/>
-      <c r="AY6" s="114"/>
-      <c r="AZ6" s="114"/>
-      <c r="BA6" s="114"/>
-      <c r="BB6" s="114"/>
-      <c r="BC6" s="114"/>
-      <c r="BD6" s="114"/>
-      <c r="BE6" s="114"/>
-      <c r="BF6" s="114"/>
-      <c r="BG6" s="114"/>
-      <c r="BH6" s="114"/>
-      <c r="BI6" s="114"/>
-      <c r="BJ6" s="114"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="139"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="138"/>
+      <c r="T6" s="139"/>
+      <c r="U6" s="139"/>
+      <c r="V6" s="139"/>
+      <c r="W6" s="139"/>
+      <c r="X6" s="139"/>
+      <c r="Y6" s="139"/>
+      <c r="Z6" s="139"/>
+      <c r="AA6" s="139"/>
+      <c r="AB6" s="139"/>
+      <c r="AC6" s="139"/>
+      <c r="AD6" s="139"/>
+      <c r="AE6" s="139"/>
+      <c r="AF6" s="139"/>
+      <c r="AG6" s="139"/>
+      <c r="AH6" s="140"/>
+      <c r="AI6" s="141"/>
+      <c r="AJ6" s="142"/>
+      <c r="AK6" s="142"/>
+      <c r="AL6" s="142"/>
+      <c r="AM6" s="142"/>
+      <c r="AN6" s="142"/>
+      <c r="AO6" s="142"/>
+      <c r="AP6" s="142"/>
+      <c r="AQ6" s="142"/>
+      <c r="AR6" s="142"/>
+      <c r="AS6" s="142"/>
+      <c r="AT6" s="142"/>
+      <c r="AU6" s="142"/>
+      <c r="AV6" s="142"/>
+      <c r="AW6" s="143"/>
+      <c r="AX6" s="141"/>
+      <c r="AY6" s="142"/>
+      <c r="AZ6" s="142"/>
+      <c r="BA6" s="142"/>
+      <c r="BB6" s="142"/>
+      <c r="BC6" s="142"/>
+      <c r="BD6" s="142"/>
+      <c r="BE6" s="142"/>
+      <c r="BF6" s="142"/>
+      <c r="BG6" s="142"/>
+      <c r="BH6" s="142"/>
+      <c r="BI6" s="142"/>
+      <c r="BJ6" s="142"/>
       <c r="BK6" s="97"/>
-      <c r="BL6" s="113"/>
-      <c r="BM6" s="116"/>
-      <c r="BN6" s="117"/>
-      <c r="BO6" s="113"/>
-      <c r="BP6" s="116"/>
-      <c r="BQ6" s="116"/>
-      <c r="BR6" s="117"/>
-      <c r="BS6" s="113"/>
-      <c r="BT6" s="116"/>
-      <c r="BU6" s="116"/>
-      <c r="BV6" s="117"/>
-      <c r="BW6" s="118"/>
-      <c r="BX6" s="119"/>
-      <c r="BY6" s="119"/>
-      <c r="BZ6" s="119"/>
-      <c r="CA6" s="119"/>
-      <c r="CB6" s="119"/>
-      <c r="CC6" s="119"/>
-      <c r="CD6" s="119"/>
-      <c r="CE6" s="119"/>
-      <c r="CF6" s="119"/>
-      <c r="CG6" s="119"/>
-      <c r="CH6" s="120"/>
+      <c r="BL6" s="141"/>
+      <c r="BM6" s="146"/>
+      <c r="BN6" s="143"/>
+      <c r="BO6" s="141"/>
+      <c r="BP6" s="146"/>
+      <c r="BQ6" s="146"/>
+      <c r="BR6" s="143"/>
+      <c r="BS6" s="141"/>
+      <c r="BT6" s="146"/>
+      <c r="BU6" s="146"/>
+      <c r="BV6" s="143"/>
+      <c r="BW6" s="120"/>
+      <c r="BX6" s="121"/>
+      <c r="BY6" s="121"/>
+      <c r="BZ6" s="121"/>
+      <c r="CA6" s="121"/>
+      <c r="CB6" s="121"/>
+      <c r="CC6" s="121"/>
+      <c r="CD6" s="121"/>
+      <c r="CE6" s="121"/>
+      <c r="CF6" s="121"/>
+      <c r="CG6" s="121"/>
+      <c r="CH6" s="122"/>
     </row>
     <row r="7" spans="1:86" ht="14.4" customHeight="1">
       <c r="A7" s="26">
@@ -5249,12 +5249,12 @@
       </c>
       <c r="BM7" s="37"/>
       <c r="BN7" s="38"/>
-      <c r="BO7" s="102">
+      <c r="BO7" s="153">
         <v>45590</v>
       </c>
-      <c r="BP7" s="103"/>
-      <c r="BQ7" s="103"/>
-      <c r="BR7" s="104"/>
+      <c r="BP7" s="154"/>
+      <c r="BQ7" s="154"/>
+      <c r="BR7" s="155"/>
       <c r="BS7" s="35" t="s">
         <v>203</v>
       </c>
@@ -6489,12 +6489,12 @@
       </c>
       <c r="BM21" s="37"/>
       <c r="BN21" s="38"/>
-      <c r="BO21" s="102">
+      <c r="BO21" s="153">
         <v>45590</v>
       </c>
-      <c r="BP21" s="103"/>
-      <c r="BQ21" s="103"/>
-      <c r="BR21" s="104"/>
+      <c r="BP21" s="154"/>
+      <c r="BQ21" s="154"/>
+      <c r="BR21" s="155"/>
       <c r="BS21" s="35" t="s">
         <v>203</v>
       </c>
@@ -8675,12 +8675,12 @@
       </c>
       <c r="BM45" s="37"/>
       <c r="BN45" s="38"/>
-      <c r="BO45" s="102">
+      <c r="BO45" s="153">
         <v>45590</v>
       </c>
-      <c r="BP45" s="103"/>
-      <c r="BQ45" s="103"/>
-      <c r="BR45" s="104"/>
+      <c r="BP45" s="154"/>
+      <c r="BQ45" s="154"/>
+      <c r="BR45" s="155"/>
       <c r="BS45" s="35" t="s">
         <v>203</v>
       </c>
@@ -31957,6 +31957,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="BO7:BR7"/>
+    <mergeCell ref="BO21:BR21"/>
+    <mergeCell ref="BO45:BR45"/>
+    <mergeCell ref="BA1:BB2"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AZ1"/>
+    <mergeCell ref="AX5:BJ6"/>
+    <mergeCell ref="BL5:BN6"/>
     <mergeCell ref="BW5:CH6"/>
     <mergeCell ref="A5:D6"/>
     <mergeCell ref="E5:K6"/>
@@ -31973,14 +31981,6 @@
     <mergeCell ref="BO5:BR6"/>
     <mergeCell ref="BS5:BV6"/>
     <mergeCell ref="BC1:BF2"/>
-    <mergeCell ref="BO7:BR7"/>
-    <mergeCell ref="BO21:BR21"/>
-    <mergeCell ref="BO45:BR45"/>
-    <mergeCell ref="BA1:BB2"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AQ1:AZ1"/>
-    <mergeCell ref="AX5:BJ6"/>
-    <mergeCell ref="BL5:BN6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -32216,142 +32216,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="14.4" customHeight="1" thickTop="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="129"/>
-      <c r="V1" s="129"/>
-      <c r="W1" s="129"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="109" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="134"/>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="134"/>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="134"/>
-      <c r="AJ1" s="134"/>
-      <c r="AK1" s="134"/>
-      <c r="AL1" s="134"/>
-      <c r="AM1" s="109" t="s">
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="137"/>
+      <c r="AG1" s="137"/>
+      <c r="AH1" s="137"/>
+      <c r="AI1" s="137"/>
+      <c r="AJ1" s="137"/>
+      <c r="AK1" s="137"/>
+      <c r="AL1" s="137"/>
+      <c r="AM1" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="AN1" s="109"/>
-      <c r="AO1" s="109"/>
-      <c r="AP1" s="109"/>
-      <c r="AQ1" s="110">
+      <c r="AN1" s="136"/>
+      <c r="AO1" s="136"/>
+      <c r="AP1" s="136"/>
+      <c r="AQ1" s="160">
         <v>45573</v>
       </c>
-      <c r="AR1" s="110"/>
-      <c r="AS1" s="110"/>
-      <c r="AT1" s="110"/>
-      <c r="AU1" s="110"/>
-      <c r="AV1" s="110"/>
-      <c r="AW1" s="110"/>
-      <c r="AX1" s="110"/>
-      <c r="AY1" s="110"/>
-      <c r="AZ1" s="110"/>
-      <c r="BA1" s="105" t="s">
+      <c r="AR1" s="160"/>
+      <c r="AS1" s="160"/>
+      <c r="AT1" s="160"/>
+      <c r="AU1" s="160"/>
+      <c r="AV1" s="160"/>
+      <c r="AW1" s="160"/>
+      <c r="AX1" s="160"/>
+      <c r="AY1" s="160"/>
+      <c r="AZ1" s="160"/>
+      <c r="BA1" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="BB1" s="106"/>
-      <c r="BC1" s="140"/>
-      <c r="BD1" s="141"/>
-      <c r="BE1" s="141"/>
-      <c r="BF1" s="142"/>
+      <c r="BB1" s="157"/>
+      <c r="BC1" s="147"/>
+      <c r="BD1" s="148"/>
+      <c r="BE1" s="148"/>
+      <c r="BF1" s="149"/>
     </row>
     <row r="2" spans="1:97" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A2" s="131"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="132"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="138" t="s">
+      <c r="A2" s="133"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="138"/>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="139" t="s">
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="144"/>
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="139"/>
-      <c r="AF2" s="139"/>
-      <c r="AG2" s="139"/>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="139"/>
-      <c r="AJ2" s="139"/>
-      <c r="AK2" s="139"/>
-      <c r="AL2" s="139"/>
-      <c r="AM2" s="138" t="s">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="145"/>
+      <c r="AG2" s="145"/>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="145"/>
+      <c r="AJ2" s="145"/>
+      <c r="AK2" s="145"/>
+      <c r="AL2" s="145"/>
+      <c r="AM2" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="138"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="138"/>
-      <c r="AQ2" s="139" t="s">
+      <c r="AN2" s="144"/>
+      <c r="AO2" s="144"/>
+      <c r="AP2" s="144"/>
+      <c r="AQ2" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="AR2" s="139"/>
-      <c r="AS2" s="139"/>
-      <c r="AT2" s="139"/>
-      <c r="AU2" s="139"/>
-      <c r="AV2" s="139"/>
-      <c r="AW2" s="139"/>
-      <c r="AX2" s="139"/>
-      <c r="AY2" s="139"/>
-      <c r="AZ2" s="139"/>
-      <c r="BA2" s="107"/>
-      <c r="BB2" s="108"/>
-      <c r="BC2" s="143"/>
-      <c r="BD2" s="144"/>
-      <c r="BE2" s="144"/>
-      <c r="BF2" s="145"/>
+      <c r="AR2" s="145"/>
+      <c r="AS2" s="145"/>
+      <c r="AT2" s="145"/>
+      <c r="AU2" s="145"/>
+      <c r="AV2" s="145"/>
+      <c r="AW2" s="145"/>
+      <c r="AX2" s="145"/>
+      <c r="AY2" s="145"/>
+      <c r="AZ2" s="145"/>
+      <c r="BA2" s="158"/>
+      <c r="BB2" s="159"/>
+      <c r="BC2" s="150"/>
+      <c r="BD2" s="151"/>
+      <c r="BE2" s="151"/>
+      <c r="BF2" s="152"/>
     </row>
     <row r="3" spans="1:97" ht="14.4" customHeight="1" thickTop="1">
       <c r="A3" s="47"/>
@@ -32590,96 +32590,96 @@
       <c r="CS5" s="73"/>
     </row>
     <row r="6" spans="1:97" ht="14.4" customHeight="1">
-      <c r="R6" s="146" t="s">
+      <c r="R6" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="S6" s="147"/>
-      <c r="T6" s="147"/>
-      <c r="U6" s="147"/>
-      <c r="V6" s="147"/>
-      <c r="W6" s="147"/>
-      <c r="X6" s="147"/>
-      <c r="Y6" s="147"/>
-      <c r="Z6" s="147"/>
-      <c r="AA6" s="147"/>
-      <c r="AB6" s="147"/>
-      <c r="AC6" s="147"/>
-      <c r="AD6" s="147"/>
-      <c r="AE6" s="147"/>
-      <c r="AF6" s="147"/>
-      <c r="AG6" s="147"/>
-      <c r="AH6" s="147"/>
-      <c r="AI6" s="147"/>
-      <c r="AJ6" s="147"/>
-      <c r="AK6" s="147"/>
-      <c r="AL6" s="147"/>
-      <c r="AM6" s="147"/>
-      <c r="AN6" s="147"/>
-      <c r="AO6" s="147"/>
-      <c r="AP6" s="147"/>
-      <c r="AQ6" s="147"/>
-      <c r="AR6" s="147"/>
-      <c r="AS6" s="147"/>
-      <c r="AT6" s="147"/>
-      <c r="AU6" s="148"/>
+      <c r="S6" s="162"/>
+      <c r="T6" s="162"/>
+      <c r="U6" s="162"/>
+      <c r="V6" s="162"/>
+      <c r="W6" s="162"/>
+      <c r="X6" s="162"/>
+      <c r="Y6" s="162"/>
+      <c r="Z6" s="162"/>
+      <c r="AA6" s="162"/>
+      <c r="AB6" s="162"/>
+      <c r="AC6" s="162"/>
+      <c r="AD6" s="162"/>
+      <c r="AE6" s="162"/>
+      <c r="AF6" s="162"/>
+      <c r="AG6" s="162"/>
+      <c r="AH6" s="162"/>
+      <c r="AI6" s="162"/>
+      <c r="AJ6" s="162"/>
+      <c r="AK6" s="162"/>
+      <c r="AL6" s="162"/>
+      <c r="AM6" s="162"/>
+      <c r="AN6" s="162"/>
+      <c r="AO6" s="162"/>
+      <c r="AP6" s="162"/>
+      <c r="AQ6" s="162"/>
+      <c r="AR6" s="162"/>
+      <c r="AS6" s="162"/>
+      <c r="AT6" s="162"/>
+      <c r="AU6" s="163"/>
     </row>
     <row r="7" spans="1:97" ht="14.4" customHeight="1">
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="164" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="152" t="s">
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="152"/>
-      <c r="L7" s="152"/>
-      <c r="M7" s="152"/>
-      <c r="N7" s="152"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="149" t="s">
+      <c r="K7" s="164"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="164"/>
+      <c r="N7" s="164"/>
+      <c r="O7" s="164"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="164"/>
+      <c r="R7" s="166" t="s">
         <v>66</v>
       </c>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150"/>
-      <c r="V7" s="150"/>
-      <c r="W7" s="150"/>
-      <c r="X7" s="150"/>
-      <c r="Y7" s="150"/>
-      <c r="Z7" s="150"/>
-      <c r="AA7" s="151"/>
-      <c r="AB7" s="147" t="s">
+      <c r="S7" s="167"/>
+      <c r="T7" s="167"/>
+      <c r="U7" s="167"/>
+      <c r="V7" s="167"/>
+      <c r="W7" s="167"/>
+      <c r="X7" s="167"/>
+      <c r="Y7" s="167"/>
+      <c r="Z7" s="167"/>
+      <c r="AA7" s="168"/>
+      <c r="AB7" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="AC7" s="147"/>
-      <c r="AD7" s="147"/>
-      <c r="AE7" s="147"/>
-      <c r="AF7" s="147"/>
-      <c r="AG7" s="147"/>
-      <c r="AH7" s="147"/>
-      <c r="AI7" s="147"/>
-      <c r="AJ7" s="147"/>
-      <c r="AK7" s="148"/>
-      <c r="AL7" s="146" t="s">
+      <c r="AC7" s="162"/>
+      <c r="AD7" s="162"/>
+      <c r="AE7" s="162"/>
+      <c r="AF7" s="162"/>
+      <c r="AG7" s="162"/>
+      <c r="AH7" s="162"/>
+      <c r="AI7" s="162"/>
+      <c r="AJ7" s="162"/>
+      <c r="AK7" s="163"/>
+      <c r="AL7" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="AM7" s="147"/>
-      <c r="AN7" s="147"/>
-      <c r="AO7" s="147"/>
-      <c r="AP7" s="147"/>
-      <c r="AQ7" s="147"/>
-      <c r="AR7" s="147"/>
-      <c r="AS7" s="147"/>
-      <c r="AT7" s="147"/>
-      <c r="AU7" s="148"/>
+      <c r="AM7" s="162"/>
+      <c r="AN7" s="162"/>
+      <c r="AO7" s="162"/>
+      <c r="AP7" s="162"/>
+      <c r="AQ7" s="162"/>
+      <c r="AR7" s="162"/>
+      <c r="AS7" s="162"/>
+      <c r="AT7" s="162"/>
+      <c r="AU7" s="163"/>
     </row>
     <row r="8" spans="1:97" ht="14.4" customHeight="1">
       <c r="B8" s="29" t="s">
@@ -33662,42 +33662,42 @@
       <c r="O27" s="81"/>
       <c r="P27" s="81"/>
       <c r="Q27" s="81"/>
-      <c r="R27" s="146" t="s">
+      <c r="R27" s="161" t="s">
         <v>63</v>
       </c>
-      <c r="S27" s="147"/>
-      <c r="T27" s="147"/>
-      <c r="U27" s="147"/>
-      <c r="V27" s="147"/>
-      <c r="W27" s="147"/>
-      <c r="X27" s="147"/>
-      <c r="Y27" s="147"/>
-      <c r="Z27" s="147"/>
-      <c r="AA27" s="148"/>
-      <c r="AB27" s="146" t="s">
+      <c r="S27" s="162"/>
+      <c r="T27" s="162"/>
+      <c r="U27" s="162"/>
+      <c r="V27" s="162"/>
+      <c r="W27" s="162"/>
+      <c r="X27" s="162"/>
+      <c r="Y27" s="162"/>
+      <c r="Z27" s="162"/>
+      <c r="AA27" s="163"/>
+      <c r="AB27" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="AC27" s="147"/>
-      <c r="AD27" s="147"/>
-      <c r="AE27" s="147"/>
-      <c r="AF27" s="147"/>
-      <c r="AG27" s="147"/>
-      <c r="AH27" s="147"/>
-      <c r="AI27" s="147"/>
-      <c r="AJ27" s="147"/>
-      <c r="AK27" s="148"/>
-      <c r="AL27" s="146" t="s">
+      <c r="AC27" s="162"/>
+      <c r="AD27" s="162"/>
+      <c r="AE27" s="162"/>
+      <c r="AF27" s="162"/>
+      <c r="AG27" s="162"/>
+      <c r="AH27" s="162"/>
+      <c r="AI27" s="162"/>
+      <c r="AJ27" s="162"/>
+      <c r="AK27" s="163"/>
+      <c r="AL27" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="AM27" s="147"/>
-      <c r="AN27" s="147"/>
-      <c r="AO27" s="147"/>
-      <c r="AP27" s="147"/>
-      <c r="AQ27" s="147"/>
-      <c r="AR27" s="147"/>
-      <c r="AS27" s="147"/>
-      <c r="AT27" s="147"/>
-      <c r="AU27" s="148"/>
+      <c r="AM27" s="162"/>
+      <c r="AN27" s="162"/>
+      <c r="AO27" s="162"/>
+      <c r="AP27" s="162"/>
+      <c r="AQ27" s="162"/>
+      <c r="AR27" s="162"/>
+      <c r="AS27" s="162"/>
+      <c r="AT27" s="162"/>
+      <c r="AU27" s="163"/>
       <c r="AV27" s="47"/>
       <c r="AW27" s="47"/>
       <c r="AX27" s="47"/>
@@ -35704,6 +35704,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="R6:AU6"/>
+    <mergeCell ref="R7:AA7"/>
+    <mergeCell ref="A1:X2"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AC1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AZ1"/>
+    <mergeCell ref="BC1:BF2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AC2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AZ2"/>
+    <mergeCell ref="BA1:BB2"/>
     <mergeCell ref="AL27:AU27"/>
     <mergeCell ref="AB27:AK27"/>
     <mergeCell ref="R27:AA27"/>
@@ -35711,19 +35724,6 @@
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="AL7:AU7"/>
     <mergeCell ref="AB7:AK7"/>
-    <mergeCell ref="BC1:BF2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AC2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AZ2"/>
-    <mergeCell ref="BA1:BB2"/>
-    <mergeCell ref="R6:AU6"/>
-    <mergeCell ref="R7:AA7"/>
-    <mergeCell ref="A1:X2"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="AC1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AQ1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35794,76 +35794,76 @@
       <c r="AV2" s="47"/>
     </row>
     <row r="3" spans="2:48" ht="13.2" customHeight="1">
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="185" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160" t="s">
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
-      <c r="N3" s="160" t="s">
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183" t="s">
         <v>143</v>
       </c>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="160"/>
-      <c r="S3" s="160"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="160"/>
-      <c r="V3" s="160"/>
-      <c r="W3" s="160"/>
-      <c r="X3" s="160"/>
-      <c r="Y3" s="160"/>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="160"/>
-      <c r="AB3" s="160" t="s">
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
+      <c r="AB3" s="183" t="s">
         <v>144</v>
       </c>
-      <c r="AC3" s="160"/>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="160" t="s">
+      <c r="AC3" s="183"/>
+      <c r="AD3" s="183"/>
+      <c r="AE3" s="183"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="183" t="s">
         <v>145</v>
       </c>
-      <c r="AH3" s="160"/>
-      <c r="AI3" s="160"/>
-      <c r="AJ3" s="160"/>
-      <c r="AK3" s="160" t="s">
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="183"/>
+      <c r="AJ3" s="183"/>
+      <c r="AK3" s="183" t="s">
         <v>146</v>
       </c>
-      <c r="AL3" s="160"/>
-      <c r="AM3" s="160"/>
-      <c r="AN3" s="160"/>
-      <c r="AO3" s="160" t="s">
+      <c r="AL3" s="183"/>
+      <c r="AM3" s="183"/>
+      <c r="AN3" s="183"/>
+      <c r="AO3" s="183" t="s">
         <v>147</v>
       </c>
-      <c r="AP3" s="160"/>
-      <c r="AQ3" s="160"/>
-      <c r="AR3" s="160"/>
-      <c r="AS3" s="160" t="s">
+      <c r="AP3" s="183"/>
+      <c r="AQ3" s="183"/>
+      <c r="AR3" s="183"/>
+      <c r="AS3" s="183" t="s">
         <v>148</v>
       </c>
-      <c r="AT3" s="160"/>
-      <c r="AU3" s="160"/>
-      <c r="AV3" s="161"/>
+      <c r="AT3" s="183"/>
+      <c r="AU3" s="183"/>
+      <c r="AV3" s="184"/>
     </row>
     <row r="4" spans="2:48" ht="13.2" customHeight="1">
-      <c r="B4" s="162">
+      <c r="B4" s="169">
         <v>1</v>
       </c>
-      <c r="C4" s="154"/>
-      <c r="D4" s="157"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="171"/>
       <c r="E4" s="53" t="s">
         <v>149</v>
       </c>
@@ -35904,31 +35904,31 @@
       <c r="AH4" s="51"/>
       <c r="AI4" s="51"/>
       <c r="AJ4" s="52"/>
-      <c r="AK4" s="156">
+      <c r="AK4" s="172">
         <v>4980</v>
       </c>
-      <c r="AL4" s="154"/>
-      <c r="AM4" s="154"/>
-      <c r="AN4" s="157"/>
-      <c r="AO4" s="156">
+      <c r="AL4" s="170"/>
+      <c r="AM4" s="170"/>
+      <c r="AN4" s="171"/>
+      <c r="AO4" s="172">
         <v>12</v>
       </c>
-      <c r="AP4" s="154"/>
-      <c r="AQ4" s="154"/>
-      <c r="AR4" s="157"/>
-      <c r="AS4" s="158" t="b">
+      <c r="AP4" s="170"/>
+      <c r="AQ4" s="170"/>
+      <c r="AR4" s="171"/>
+      <c r="AS4" s="173" t="b">
         <v>0</v>
       </c>
-      <c r="AT4" s="155"/>
-      <c r="AU4" s="155"/>
-      <c r="AV4" s="163"/>
+      <c r="AT4" s="174"/>
+      <c r="AU4" s="174"/>
+      <c r="AV4" s="175"/>
     </row>
     <row r="5" spans="2:48">
-      <c r="B5" s="162">
+      <c r="B5" s="169">
         <v>2</v>
       </c>
-      <c r="C5" s="154"/>
-      <c r="D5" s="157"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="53" t="s">
         <v>153</v>
       </c>
@@ -35969,31 +35969,31 @@
       <c r="AH5" s="51"/>
       <c r="AI5" s="51"/>
       <c r="AJ5" s="52"/>
-      <c r="AK5" s="156">
+      <c r="AK5" s="172">
         <v>3480</v>
       </c>
-      <c r="AL5" s="154"/>
-      <c r="AM5" s="154"/>
-      <c r="AN5" s="157"/>
-      <c r="AO5" s="156">
+      <c r="AL5" s="170"/>
+      <c r="AM5" s="170"/>
+      <c r="AN5" s="171"/>
+      <c r="AO5" s="172">
         <v>15</v>
       </c>
-      <c r="AP5" s="154"/>
-      <c r="AQ5" s="154"/>
-      <c r="AR5" s="157"/>
-      <c r="AS5" s="158" t="b">
+      <c r="AP5" s="170"/>
+      <c r="AQ5" s="170"/>
+      <c r="AR5" s="171"/>
+      <c r="AS5" s="173" t="b">
         <v>1</v>
       </c>
-      <c r="AT5" s="155"/>
-      <c r="AU5" s="155"/>
-      <c r="AV5" s="163"/>
+      <c r="AT5" s="174"/>
+      <c r="AU5" s="174"/>
+      <c r="AV5" s="175"/>
     </row>
     <row r="6" spans="2:48">
-      <c r="B6" s="162">
+      <c r="B6" s="169">
         <v>3</v>
       </c>
-      <c r="C6" s="154"/>
-      <c r="D6" s="157"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="171"/>
       <c r="E6" s="53" t="s">
         <v>156</v>
       </c>
@@ -36034,31 +36034,31 @@
       <c r="AH6" s="51"/>
       <c r="AI6" s="51"/>
       <c r="AJ6" s="52"/>
-      <c r="AK6" s="156">
+      <c r="AK6" s="172">
         <v>2980</v>
       </c>
-      <c r="AL6" s="154"/>
-      <c r="AM6" s="154"/>
-      <c r="AN6" s="157"/>
-      <c r="AO6" s="156">
+      <c r="AL6" s="170"/>
+      <c r="AM6" s="170"/>
+      <c r="AN6" s="171"/>
+      <c r="AO6" s="172">
         <v>0</v>
       </c>
-      <c r="AP6" s="154"/>
-      <c r="AQ6" s="154"/>
-      <c r="AR6" s="157"/>
-      <c r="AS6" s="158" t="b">
+      <c r="AP6" s="170"/>
+      <c r="AQ6" s="170"/>
+      <c r="AR6" s="171"/>
+      <c r="AS6" s="173" t="b">
         <v>0</v>
       </c>
-      <c r="AT6" s="155"/>
-      <c r="AU6" s="155"/>
-      <c r="AV6" s="163"/>
+      <c r="AT6" s="174"/>
+      <c r="AU6" s="174"/>
+      <c r="AV6" s="175"/>
     </row>
     <row r="7" spans="2:48">
-      <c r="B7" s="162">
+      <c r="B7" s="169">
         <v>4</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="157"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="171"/>
       <c r="E7" s="53" t="s">
         <v>159</v>
       </c>
@@ -36099,31 +36099,31 @@
       <c r="AH7" s="51"/>
       <c r="AI7" s="51"/>
       <c r="AJ7" s="52"/>
-      <c r="AK7" s="156">
+      <c r="AK7" s="172">
         <v>4480</v>
       </c>
-      <c r="AL7" s="154"/>
-      <c r="AM7" s="154"/>
-      <c r="AN7" s="157"/>
-      <c r="AO7" s="156">
+      <c r="AL7" s="170"/>
+      <c r="AM7" s="170"/>
+      <c r="AN7" s="171"/>
+      <c r="AO7" s="172">
         <v>6</v>
       </c>
-      <c r="AP7" s="154"/>
-      <c r="AQ7" s="154"/>
-      <c r="AR7" s="157"/>
-      <c r="AS7" s="158" t="b">
+      <c r="AP7" s="170"/>
+      <c r="AQ7" s="170"/>
+      <c r="AR7" s="171"/>
+      <c r="AS7" s="173" t="b">
         <v>0</v>
       </c>
-      <c r="AT7" s="155"/>
-      <c r="AU7" s="155"/>
-      <c r="AV7" s="163"/>
+      <c r="AT7" s="174"/>
+      <c r="AU7" s="174"/>
+      <c r="AV7" s="175"/>
     </row>
     <row r="8" spans="2:48">
-      <c r="B8" s="162">
+      <c r="B8" s="169">
         <v>5</v>
       </c>
-      <c r="C8" s="154"/>
-      <c r="D8" s="157"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="53" t="s">
         <v>161</v>
       </c>
@@ -36164,31 +36164,31 @@
       <c r="AH8" s="51"/>
       <c r="AI8" s="51"/>
       <c r="AJ8" s="52"/>
-      <c r="AK8" s="156">
+      <c r="AK8" s="172">
         <v>2500</v>
       </c>
-      <c r="AL8" s="154"/>
-      <c r="AM8" s="154"/>
-      <c r="AN8" s="157"/>
-      <c r="AO8" s="156">
+      <c r="AL8" s="170"/>
+      <c r="AM8" s="170"/>
+      <c r="AN8" s="171"/>
+      <c r="AO8" s="172">
         <v>179</v>
       </c>
-      <c r="AP8" s="154"/>
-      <c r="AQ8" s="154"/>
-      <c r="AR8" s="157"/>
-      <c r="AS8" s="158" t="b">
+      <c r="AP8" s="170"/>
+      <c r="AQ8" s="170"/>
+      <c r="AR8" s="171"/>
+      <c r="AS8" s="173" t="b">
         <v>1</v>
       </c>
-      <c r="AT8" s="155"/>
-      <c r="AU8" s="155"/>
-      <c r="AV8" s="163"/>
+      <c r="AT8" s="174"/>
+      <c r="AU8" s="174"/>
+      <c r="AV8" s="175"/>
     </row>
     <row r="9" spans="2:48">
-      <c r="B9" s="162">
+      <c r="B9" s="169">
         <v>6</v>
       </c>
-      <c r="C9" s="154"/>
-      <c r="D9" s="157"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="171"/>
       <c r="E9" s="53" t="s">
         <v>163</v>
       </c>
@@ -36229,31 +36229,31 @@
       <c r="AH9" s="51"/>
       <c r="AI9" s="51"/>
       <c r="AJ9" s="52"/>
-      <c r="AK9" s="156">
+      <c r="AK9" s="172">
         <v>1800</v>
       </c>
-      <c r="AL9" s="154"/>
-      <c r="AM9" s="154"/>
-      <c r="AN9" s="157"/>
-      <c r="AO9" s="156">
+      <c r="AL9" s="170"/>
+      <c r="AM9" s="170"/>
+      <c r="AN9" s="171"/>
+      <c r="AO9" s="172">
         <v>9</v>
       </c>
-      <c r="AP9" s="154"/>
-      <c r="AQ9" s="154"/>
-      <c r="AR9" s="157"/>
-      <c r="AS9" s="158" t="b">
+      <c r="AP9" s="170"/>
+      <c r="AQ9" s="170"/>
+      <c r="AR9" s="171"/>
+      <c r="AS9" s="173" t="b">
         <v>0</v>
       </c>
-      <c r="AT9" s="155"/>
-      <c r="AU9" s="155"/>
-      <c r="AV9" s="163"/>
+      <c r="AT9" s="174"/>
+      <c r="AU9" s="174"/>
+      <c r="AV9" s="175"/>
     </row>
     <row r="10" spans="2:48">
-      <c r="B10" s="162">
+      <c r="B10" s="169">
         <v>7</v>
       </c>
-      <c r="C10" s="154"/>
-      <c r="D10" s="157"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="171"/>
       <c r="E10" s="53" t="s">
         <v>165</v>
       </c>
@@ -36294,31 +36294,31 @@
       <c r="AH10" s="51"/>
       <c r="AI10" s="51"/>
       <c r="AJ10" s="52"/>
-      <c r="AK10" s="156">
+      <c r="AK10" s="172">
         <v>1980</v>
       </c>
-      <c r="AL10" s="154"/>
-      <c r="AM10" s="154"/>
-      <c r="AN10" s="157"/>
-      <c r="AO10" s="156">
+      <c r="AL10" s="170"/>
+      <c r="AM10" s="170"/>
+      <c r="AN10" s="171"/>
+      <c r="AO10" s="172">
         <v>20</v>
       </c>
-      <c r="AP10" s="154"/>
-      <c r="AQ10" s="154"/>
-      <c r="AR10" s="157"/>
-      <c r="AS10" s="158" t="b">
+      <c r="AP10" s="170"/>
+      <c r="AQ10" s="170"/>
+      <c r="AR10" s="171"/>
+      <c r="AS10" s="173" t="b">
         <v>0</v>
       </c>
-      <c r="AT10" s="155"/>
-      <c r="AU10" s="155"/>
-      <c r="AV10" s="163"/>
+      <c r="AT10" s="174"/>
+      <c r="AU10" s="174"/>
+      <c r="AV10" s="175"/>
     </row>
     <row r="11" spans="2:48">
-      <c r="B11" s="162">
+      <c r="B11" s="169">
         <v>8</v>
       </c>
-      <c r="C11" s="154"/>
-      <c r="D11" s="157"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="171"/>
       <c r="E11" s="53" t="s">
         <v>166</v>
       </c>
@@ -36359,31 +36359,31 @@
       <c r="AH11" s="51"/>
       <c r="AI11" s="51"/>
       <c r="AJ11" s="52"/>
-      <c r="AK11" s="156">
+      <c r="AK11" s="172">
         <v>5480</v>
       </c>
-      <c r="AL11" s="154"/>
-      <c r="AM11" s="154"/>
-      <c r="AN11" s="157"/>
-      <c r="AO11" s="156">
+      <c r="AL11" s="170"/>
+      <c r="AM11" s="170"/>
+      <c r="AN11" s="171"/>
+      <c r="AO11" s="172">
         <v>0</v>
       </c>
-      <c r="AP11" s="154"/>
-      <c r="AQ11" s="154"/>
-      <c r="AR11" s="157"/>
-      <c r="AS11" s="158" t="b">
+      <c r="AP11" s="170"/>
+      <c r="AQ11" s="170"/>
+      <c r="AR11" s="171"/>
+      <c r="AS11" s="173" t="b">
         <v>1</v>
       </c>
-      <c r="AT11" s="155"/>
-      <c r="AU11" s="155"/>
-      <c r="AV11" s="163"/>
+      <c r="AT11" s="174"/>
+      <c r="AU11" s="174"/>
+      <c r="AV11" s="175"/>
     </row>
     <row r="12" spans="2:48">
-      <c r="B12" s="162">
+      <c r="B12" s="169">
         <v>9</v>
       </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="157"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="171"/>
       <c r="E12" s="53" t="s">
         <v>167</v>
       </c>
@@ -36424,31 +36424,31 @@
       <c r="AH12" s="51"/>
       <c r="AI12" s="51"/>
       <c r="AJ12" s="52"/>
-      <c r="AK12" s="156">
+      <c r="AK12" s="172">
         <v>4580</v>
       </c>
-      <c r="AL12" s="154"/>
-      <c r="AM12" s="154"/>
-      <c r="AN12" s="157"/>
-      <c r="AO12" s="156">
+      <c r="AL12" s="170"/>
+      <c r="AM12" s="170"/>
+      <c r="AN12" s="171"/>
+      <c r="AO12" s="172">
         <v>1</v>
       </c>
-      <c r="AP12" s="154"/>
-      <c r="AQ12" s="154"/>
-      <c r="AR12" s="157"/>
-      <c r="AS12" s="158" t="b">
+      <c r="AP12" s="170"/>
+      <c r="AQ12" s="170"/>
+      <c r="AR12" s="171"/>
+      <c r="AS12" s="173" t="b">
         <v>0</v>
       </c>
-      <c r="AT12" s="155"/>
-      <c r="AU12" s="155"/>
-      <c r="AV12" s="163"/>
+      <c r="AT12" s="174"/>
+      <c r="AU12" s="174"/>
+      <c r="AV12" s="175"/>
     </row>
     <row r="13" spans="2:48">
-      <c r="B13" s="162">
+      <c r="B13" s="169">
         <v>10</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="157"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="53" t="s">
         <v>168</v>
       </c>
@@ -36489,31 +36489,31 @@
       <c r="AH13" s="51"/>
       <c r="AI13" s="51"/>
       <c r="AJ13" s="52"/>
-      <c r="AK13" s="156">
+      <c r="AK13" s="172">
         <v>3200</v>
       </c>
-      <c r="AL13" s="154"/>
-      <c r="AM13" s="154"/>
-      <c r="AN13" s="157"/>
-      <c r="AO13" s="156">
+      <c r="AL13" s="170"/>
+      <c r="AM13" s="170"/>
+      <c r="AN13" s="171"/>
+      <c r="AO13" s="172">
         <v>8</v>
       </c>
-      <c r="AP13" s="154"/>
-      <c r="AQ13" s="154"/>
-      <c r="AR13" s="157"/>
-      <c r="AS13" s="158" t="b">
+      <c r="AP13" s="170"/>
+      <c r="AQ13" s="170"/>
+      <c r="AR13" s="171"/>
+      <c r="AS13" s="173" t="b">
         <v>0</v>
       </c>
-      <c r="AT13" s="155"/>
-      <c r="AU13" s="155"/>
-      <c r="AV13" s="163"/>
+      <c r="AT13" s="174"/>
+      <c r="AU13" s="174"/>
+      <c r="AV13" s="175"/>
     </row>
     <row r="14" spans="2:48">
-      <c r="B14" s="162">
+      <c r="B14" s="169">
         <v>11</v>
       </c>
-      <c r="C14" s="154"/>
-      <c r="D14" s="157"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="171"/>
       <c r="E14" s="53" t="s">
         <v>169</v>
       </c>
@@ -36554,31 +36554,31 @@
       <c r="AH14" s="51"/>
       <c r="AI14" s="51"/>
       <c r="AJ14" s="52"/>
-      <c r="AK14" s="156">
+      <c r="AK14" s="172">
         <v>650</v>
       </c>
-      <c r="AL14" s="154"/>
-      <c r="AM14" s="154"/>
-      <c r="AN14" s="157"/>
-      <c r="AO14" s="156">
+      <c r="AL14" s="170"/>
+      <c r="AM14" s="170"/>
+      <c r="AN14" s="171"/>
+      <c r="AO14" s="172">
         <v>17</v>
       </c>
-      <c r="AP14" s="154"/>
-      <c r="AQ14" s="154"/>
-      <c r="AR14" s="157"/>
-      <c r="AS14" s="158" t="b">
+      <c r="AP14" s="170"/>
+      <c r="AQ14" s="170"/>
+      <c r="AR14" s="171"/>
+      <c r="AS14" s="173" t="b">
         <v>1</v>
       </c>
-      <c r="AT14" s="155"/>
-      <c r="AU14" s="155"/>
-      <c r="AV14" s="163"/>
+      <c r="AT14" s="174"/>
+      <c r="AU14" s="174"/>
+      <c r="AV14" s="175"/>
     </row>
     <row r="15" spans="2:48">
-      <c r="B15" s="162">
+      <c r="B15" s="169">
         <v>12</v>
       </c>
-      <c r="C15" s="154"/>
-      <c r="D15" s="157"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="171"/>
       <c r="E15" s="53" t="s">
         <v>170</v>
       </c>
@@ -36619,31 +36619,31 @@
       <c r="AH15" s="51"/>
       <c r="AI15" s="51"/>
       <c r="AJ15" s="52"/>
-      <c r="AK15" s="156">
+      <c r="AK15" s="172">
         <v>1980</v>
       </c>
-      <c r="AL15" s="154"/>
-      <c r="AM15" s="154"/>
-      <c r="AN15" s="157"/>
-      <c r="AO15" s="156">
+      <c r="AL15" s="170"/>
+      <c r="AM15" s="170"/>
+      <c r="AN15" s="171"/>
+      <c r="AO15" s="172">
         <v>18</v>
       </c>
-      <c r="AP15" s="154"/>
-      <c r="AQ15" s="154"/>
-      <c r="AR15" s="157"/>
-      <c r="AS15" s="158" t="b">
+      <c r="AP15" s="170"/>
+      <c r="AQ15" s="170"/>
+      <c r="AR15" s="171"/>
+      <c r="AS15" s="173" t="b">
         <v>1</v>
       </c>
-      <c r="AT15" s="155"/>
-      <c r="AU15" s="155"/>
-      <c r="AV15" s="163"/>
+      <c r="AT15" s="174"/>
+      <c r="AU15" s="174"/>
+      <c r="AV15" s="175"/>
     </row>
     <row r="16" spans="2:48">
-      <c r="B16" s="162">
+      <c r="B16" s="169">
         <v>13</v>
       </c>
-      <c r="C16" s="154"/>
-      <c r="D16" s="157"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="53" t="s">
         <v>173</v>
       </c>
@@ -36684,31 +36684,31 @@
       <c r="AH16" s="51"/>
       <c r="AI16" s="51"/>
       <c r="AJ16" s="52"/>
-      <c r="AK16" s="156">
+      <c r="AK16" s="172">
         <v>4980</v>
       </c>
-      <c r="AL16" s="154"/>
-      <c r="AM16" s="154"/>
-      <c r="AN16" s="157"/>
-      <c r="AO16" s="156">
+      <c r="AL16" s="170"/>
+      <c r="AM16" s="170"/>
+      <c r="AN16" s="171"/>
+      <c r="AO16" s="172">
         <v>15</v>
       </c>
-      <c r="AP16" s="154"/>
-      <c r="AQ16" s="154"/>
-      <c r="AR16" s="157"/>
-      <c r="AS16" s="158" t="b">
+      <c r="AP16" s="170"/>
+      <c r="AQ16" s="170"/>
+      <c r="AR16" s="171"/>
+      <c r="AS16" s="173" t="b">
         <v>0</v>
       </c>
-      <c r="AT16" s="155"/>
-      <c r="AU16" s="155"/>
-      <c r="AV16" s="163"/>
+      <c r="AT16" s="174"/>
+      <c r="AU16" s="174"/>
+      <c r="AV16" s="175"/>
     </row>
     <row r="17" spans="2:48">
-      <c r="B17" s="162">
+      <c r="B17" s="169">
         <v>14</v>
       </c>
-      <c r="C17" s="154"/>
-      <c r="D17" s="157"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="171"/>
       <c r="E17" s="53" t="s">
         <v>174</v>
       </c>
@@ -36749,31 +36749,31 @@
       <c r="AH17" s="51"/>
       <c r="AI17" s="51"/>
       <c r="AJ17" s="52"/>
-      <c r="AK17" s="156">
+      <c r="AK17" s="172">
         <v>2200</v>
       </c>
-      <c r="AL17" s="154"/>
-      <c r="AM17" s="154"/>
-      <c r="AN17" s="157"/>
-      <c r="AO17" s="156">
+      <c r="AL17" s="170"/>
+      <c r="AM17" s="170"/>
+      <c r="AN17" s="171"/>
+      <c r="AO17" s="172">
         <v>3</v>
       </c>
-      <c r="AP17" s="154"/>
-      <c r="AQ17" s="154"/>
-      <c r="AR17" s="157"/>
-      <c r="AS17" s="158" t="b">
+      <c r="AP17" s="170"/>
+      <c r="AQ17" s="170"/>
+      <c r="AR17" s="171"/>
+      <c r="AS17" s="173" t="b">
         <v>0</v>
       </c>
-      <c r="AT17" s="155"/>
-      <c r="AU17" s="155"/>
-      <c r="AV17" s="163"/>
+      <c r="AT17" s="174"/>
+      <c r="AU17" s="174"/>
+      <c r="AV17" s="175"/>
     </row>
     <row r="18" spans="2:48">
-      <c r="B18" s="162">
+      <c r="B18" s="169">
         <v>15</v>
       </c>
-      <c r="C18" s="154"/>
-      <c r="D18" s="157"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="171"/>
       <c r="E18" s="53" t="s">
         <v>176</v>
       </c>
@@ -36814,31 +36814,31 @@
       <c r="AH18" s="51"/>
       <c r="AI18" s="51"/>
       <c r="AJ18" s="52"/>
-      <c r="AK18" s="156">
+      <c r="AK18" s="172">
         <v>2980</v>
       </c>
-      <c r="AL18" s="154"/>
-      <c r="AM18" s="154"/>
-      <c r="AN18" s="157"/>
-      <c r="AO18" s="156">
+      <c r="AL18" s="170"/>
+      <c r="AM18" s="170"/>
+      <c r="AN18" s="171"/>
+      <c r="AO18" s="172">
         <v>0</v>
       </c>
-      <c r="AP18" s="154"/>
-      <c r="AQ18" s="154"/>
-      <c r="AR18" s="157"/>
-      <c r="AS18" s="158" t="b">
+      <c r="AP18" s="170"/>
+      <c r="AQ18" s="170"/>
+      <c r="AR18" s="171"/>
+      <c r="AS18" s="173" t="b">
         <v>0</v>
       </c>
-      <c r="AT18" s="155"/>
-      <c r="AU18" s="155"/>
-      <c r="AV18" s="163"/>
+      <c r="AT18" s="174"/>
+      <c r="AU18" s="174"/>
+      <c r="AV18" s="175"/>
     </row>
     <row r="19" spans="2:48">
-      <c r="B19" s="162">
+      <c r="B19" s="169">
         <v>16</v>
       </c>
-      <c r="C19" s="154"/>
-      <c r="D19" s="157"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
       <c r="E19" s="53" t="s">
         <v>178</v>
       </c>
@@ -36879,31 +36879,31 @@
       <c r="AH19" s="51"/>
       <c r="AI19" s="51"/>
       <c r="AJ19" s="52"/>
-      <c r="AK19" s="156">
+      <c r="AK19" s="172">
         <v>780</v>
       </c>
-      <c r="AL19" s="154"/>
-      <c r="AM19" s="154"/>
-      <c r="AN19" s="157"/>
-      <c r="AO19" s="156">
+      <c r="AL19" s="170"/>
+      <c r="AM19" s="170"/>
+      <c r="AN19" s="171"/>
+      <c r="AO19" s="172">
         <v>17</v>
       </c>
-      <c r="AP19" s="154"/>
-      <c r="AQ19" s="154"/>
-      <c r="AR19" s="157"/>
-      <c r="AS19" s="158" t="b">
+      <c r="AP19" s="170"/>
+      <c r="AQ19" s="170"/>
+      <c r="AR19" s="171"/>
+      <c r="AS19" s="173" t="b">
         <v>1</v>
       </c>
-      <c r="AT19" s="155"/>
-      <c r="AU19" s="155"/>
-      <c r="AV19" s="163"/>
+      <c r="AT19" s="174"/>
+      <c r="AU19" s="174"/>
+      <c r="AV19" s="175"/>
     </row>
     <row r="20" spans="2:48">
-      <c r="B20" s="162">
+      <c r="B20" s="169">
         <v>17</v>
       </c>
-      <c r="C20" s="154"/>
-      <c r="D20" s="157"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="171"/>
       <c r="E20" s="53" t="s">
         <v>179</v>
       </c>
@@ -36944,31 +36944,31 @@
       <c r="AH20" s="51"/>
       <c r="AI20" s="51"/>
       <c r="AJ20" s="52"/>
-      <c r="AK20" s="156">
+      <c r="AK20" s="172">
         <v>2500</v>
       </c>
-      <c r="AL20" s="154"/>
-      <c r="AM20" s="154"/>
-      <c r="AN20" s="157"/>
-      <c r="AO20" s="156">
+      <c r="AL20" s="170"/>
+      <c r="AM20" s="170"/>
+      <c r="AN20" s="171"/>
+      <c r="AO20" s="172">
         <v>9</v>
       </c>
-      <c r="AP20" s="154"/>
-      <c r="AQ20" s="154"/>
-      <c r="AR20" s="157"/>
-      <c r="AS20" s="158" t="b">
+      <c r="AP20" s="170"/>
+      <c r="AQ20" s="170"/>
+      <c r="AR20" s="171"/>
+      <c r="AS20" s="173" t="b">
         <v>1</v>
       </c>
-      <c r="AT20" s="155"/>
-      <c r="AU20" s="155"/>
-      <c r="AV20" s="163"/>
+      <c r="AT20" s="174"/>
+      <c r="AU20" s="174"/>
+      <c r="AV20" s="175"/>
     </row>
     <row r="21" spans="2:48">
-      <c r="B21" s="162">
+      <c r="B21" s="169">
         <v>18</v>
       </c>
-      <c r="C21" s="154"/>
-      <c r="D21" s="157"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="171"/>
       <c r="E21" s="53" t="s">
         <v>180</v>
       </c>
@@ -37009,31 +37009,31 @@
       <c r="AH21" s="51"/>
       <c r="AI21" s="51"/>
       <c r="AJ21" s="52"/>
-      <c r="AK21" s="156">
+      <c r="AK21" s="172">
         <v>1800</v>
       </c>
-      <c r="AL21" s="154"/>
-      <c r="AM21" s="154"/>
-      <c r="AN21" s="157"/>
-      <c r="AO21" s="156">
+      <c r="AL21" s="170"/>
+      <c r="AM21" s="170"/>
+      <c r="AN21" s="171"/>
+      <c r="AO21" s="172">
         <v>20</v>
       </c>
-      <c r="AP21" s="154"/>
-      <c r="AQ21" s="154"/>
-      <c r="AR21" s="157"/>
-      <c r="AS21" s="158" t="b">
+      <c r="AP21" s="170"/>
+      <c r="AQ21" s="170"/>
+      <c r="AR21" s="171"/>
+      <c r="AS21" s="173" t="b">
         <v>1</v>
       </c>
-      <c r="AT21" s="155"/>
-      <c r="AU21" s="155"/>
-      <c r="AV21" s="163"/>
+      <c r="AT21" s="174"/>
+      <c r="AU21" s="174"/>
+      <c r="AV21" s="175"/>
     </row>
     <row r="22" spans="2:48">
-      <c r="B22" s="162">
+      <c r="B22" s="169">
         <v>19</v>
       </c>
-      <c r="C22" s="154"/>
-      <c r="D22" s="157"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="171"/>
       <c r="E22" s="53" t="s">
         <v>181</v>
       </c>
@@ -37074,31 +37074,31 @@
       <c r="AH22" s="51"/>
       <c r="AI22" s="51"/>
       <c r="AJ22" s="52"/>
-      <c r="AK22" s="156">
+      <c r="AK22" s="172">
         <v>1980</v>
       </c>
-      <c r="AL22" s="154"/>
-      <c r="AM22" s="154"/>
-      <c r="AN22" s="157"/>
-      <c r="AO22" s="156">
+      <c r="AL22" s="170"/>
+      <c r="AM22" s="170"/>
+      <c r="AN22" s="171"/>
+      <c r="AO22" s="172">
         <v>2</v>
       </c>
-      <c r="AP22" s="154"/>
-      <c r="AQ22" s="154"/>
-      <c r="AR22" s="157"/>
-      <c r="AS22" s="158" t="b">
+      <c r="AP22" s="170"/>
+      <c r="AQ22" s="170"/>
+      <c r="AR22" s="171"/>
+      <c r="AS22" s="173" t="b">
         <v>0</v>
       </c>
-      <c r="AT22" s="155"/>
-      <c r="AU22" s="155"/>
-      <c r="AV22" s="163"/>
+      <c r="AT22" s="174"/>
+      <c r="AU22" s="174"/>
+      <c r="AV22" s="175"/>
     </row>
     <row r="23" spans="2:48">
-      <c r="B23" s="162">
+      <c r="B23" s="169">
         <v>20</v>
       </c>
-      <c r="C23" s="154"/>
-      <c r="D23" s="157"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="171"/>
       <c r="E23" s="53" t="s">
         <v>182</v>
       </c>
@@ -37139,172 +37139,92 @@
       <c r="AH23" s="51"/>
       <c r="AI23" s="51"/>
       <c r="AJ23" s="52"/>
-      <c r="AK23" s="156">
+      <c r="AK23" s="172">
         <v>690</v>
       </c>
-      <c r="AL23" s="154"/>
-      <c r="AM23" s="154"/>
-      <c r="AN23" s="157"/>
-      <c r="AO23" s="156">
+      <c r="AL23" s="170"/>
+      <c r="AM23" s="170"/>
+      <c r="AN23" s="171"/>
+      <c r="AO23" s="172">
         <v>0</v>
       </c>
-      <c r="AP23" s="154"/>
-      <c r="AQ23" s="154"/>
-      <c r="AR23" s="157"/>
-      <c r="AS23" s="158" t="b">
+      <c r="AP23" s="170"/>
+      <c r="AQ23" s="170"/>
+      <c r="AR23" s="171"/>
+      <c r="AS23" s="173" t="b">
         <v>0</v>
       </c>
-      <c r="AT23" s="155"/>
-      <c r="AU23" s="155"/>
-      <c r="AV23" s="163"/>
+      <c r="AT23" s="174"/>
+      <c r="AU23" s="174"/>
+      <c r="AV23" s="175"/>
     </row>
     <row r="24" spans="2:48" ht="13.8" thickBot="1">
-      <c r="B24" s="164">
+      <c r="B24" s="176">
         <v>21</v>
       </c>
-      <c r="C24" s="165"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="167" t="s">
+      <c r="C24" s="177"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="F24" s="168"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="168"/>
-      <c r="K24" s="168"/>
-      <c r="L24" s="168"/>
-      <c r="M24" s="169"/>
-      <c r="N24" s="167" t="s">
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="102" t="s">
         <v>177</v>
       </c>
-      <c r="O24" s="168"/>
-      <c r="P24" s="168"/>
-      <c r="Q24" s="168"/>
-      <c r="R24" s="168"/>
-      <c r="S24" s="168"/>
-      <c r="T24" s="168"/>
-      <c r="U24" s="168"/>
-      <c r="V24" s="168"/>
-      <c r="W24" s="168"/>
-      <c r="X24" s="168"/>
-      <c r="Y24" s="168"/>
-      <c r="Z24" s="168"/>
-      <c r="AA24" s="169"/>
-      <c r="AB24" s="167" t="s">
+      <c r="O24" s="103"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="103"/>
+      <c r="U24" s="103"/>
+      <c r="V24" s="103"/>
+      <c r="W24" s="103"/>
+      <c r="X24" s="103"/>
+      <c r="Y24" s="103"/>
+      <c r="Z24" s="103"/>
+      <c r="AA24" s="104"/>
+      <c r="AB24" s="102" t="s">
         <v>172</v>
       </c>
-      <c r="AC24" s="168"/>
-      <c r="AD24" s="168"/>
-      <c r="AE24" s="168"/>
-      <c r="AF24" s="169"/>
-      <c r="AG24" s="167" t="s">
+      <c r="AC24" s="103"/>
+      <c r="AD24" s="103"/>
+      <c r="AE24" s="103"/>
+      <c r="AF24" s="104"/>
+      <c r="AG24" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="AH24" s="168"/>
-      <c r="AI24" s="168"/>
-      <c r="AJ24" s="169"/>
-      <c r="AK24" s="170">
+      <c r="AH24" s="103"/>
+      <c r="AI24" s="103"/>
+      <c r="AJ24" s="104"/>
+      <c r="AK24" s="179">
         <v>3780</v>
       </c>
-      <c r="AL24" s="165"/>
-      <c r="AM24" s="165"/>
-      <c r="AN24" s="166"/>
-      <c r="AO24" s="170">
+      <c r="AL24" s="177"/>
+      <c r="AM24" s="177"/>
+      <c r="AN24" s="178"/>
+      <c r="AO24" s="179">
         <v>0</v>
       </c>
-      <c r="AP24" s="165"/>
-      <c r="AQ24" s="165"/>
-      <c r="AR24" s="166"/>
-      <c r="AS24" s="171" t="b">
+      <c r="AP24" s="177"/>
+      <c r="AQ24" s="177"/>
+      <c r="AR24" s="178"/>
+      <c r="AS24" s="180" t="b">
         <v>0</v>
       </c>
-      <c r="AT24" s="172"/>
-      <c r="AU24" s="172"/>
-      <c r="AV24" s="173"/>
+      <c r="AT24" s="181"/>
+      <c r="AU24" s="181"/>
+      <c r="AV24" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="AK23:AN23"/>
-    <mergeCell ref="AO23:AR23"/>
-    <mergeCell ref="AS23:AV23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="AK24:AN24"/>
-    <mergeCell ref="AO24:AR24"/>
-    <mergeCell ref="AS24:AV24"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="AK21:AN21"/>
-    <mergeCell ref="AO21:AR21"/>
-    <mergeCell ref="AS21:AV21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="AK22:AN22"/>
-    <mergeCell ref="AO22:AR22"/>
-    <mergeCell ref="AS22:AV22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="AK19:AN19"/>
-    <mergeCell ref="AO19:AR19"/>
-    <mergeCell ref="AS19:AV19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="AK20:AN20"/>
-    <mergeCell ref="AO20:AR20"/>
-    <mergeCell ref="AS20:AV20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="AK17:AN17"/>
-    <mergeCell ref="AO17:AR17"/>
-    <mergeCell ref="AS17:AV17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="AK18:AN18"/>
-    <mergeCell ref="AO18:AR18"/>
-    <mergeCell ref="AS18:AV18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="AK15:AN15"/>
-    <mergeCell ref="AO15:AR15"/>
-    <mergeCell ref="AS15:AV15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="AK16:AN16"/>
-    <mergeCell ref="AO16:AR16"/>
-    <mergeCell ref="AS16:AV16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="AK13:AN13"/>
-    <mergeCell ref="AO13:AR13"/>
-    <mergeCell ref="AS13:AV13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="AK14:AN14"/>
-    <mergeCell ref="AO14:AR14"/>
-    <mergeCell ref="AS14:AV14"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="AK11:AN11"/>
-    <mergeCell ref="AO11:AR11"/>
-    <mergeCell ref="AS11:AV11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="AK12:AN12"/>
-    <mergeCell ref="AO12:AR12"/>
-    <mergeCell ref="AS12:AV12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="AK9:AN9"/>
-    <mergeCell ref="AO9:AR9"/>
-    <mergeCell ref="AS9:AV9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="AK10:AN10"/>
-    <mergeCell ref="AO10:AR10"/>
-    <mergeCell ref="AS10:AV10"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="AK7:AN7"/>
-    <mergeCell ref="AO7:AR7"/>
-    <mergeCell ref="AS7:AV7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="AK8:AN8"/>
-    <mergeCell ref="AO8:AR8"/>
-    <mergeCell ref="AS8:AV8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="AK5:AN5"/>
-    <mergeCell ref="AO5:AR5"/>
-    <mergeCell ref="AS5:AV5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="AK6:AN6"/>
-    <mergeCell ref="AO6:AR6"/>
-    <mergeCell ref="AS6:AV6"/>
     <mergeCell ref="AO3:AR3"/>
     <mergeCell ref="AS3:AV3"/>
     <mergeCell ref="B4:D4"/>
@@ -37317,6 +37237,86 @@
     <mergeCell ref="AB3:AF3"/>
     <mergeCell ref="AG3:AJ3"/>
     <mergeCell ref="AK3:AN3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="AO5:AR5"/>
+    <mergeCell ref="AS5:AV5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="AK6:AN6"/>
+    <mergeCell ref="AO6:AR6"/>
+    <mergeCell ref="AS6:AV6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="AK7:AN7"/>
+    <mergeCell ref="AO7:AR7"/>
+    <mergeCell ref="AS7:AV7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="AK8:AN8"/>
+    <mergeCell ref="AO8:AR8"/>
+    <mergeCell ref="AS8:AV8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="AK9:AN9"/>
+    <mergeCell ref="AO9:AR9"/>
+    <mergeCell ref="AS9:AV9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="AK10:AN10"/>
+    <mergeCell ref="AO10:AR10"/>
+    <mergeCell ref="AS10:AV10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="AK11:AN11"/>
+    <mergeCell ref="AO11:AR11"/>
+    <mergeCell ref="AS11:AV11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="AK12:AN12"/>
+    <mergeCell ref="AO12:AR12"/>
+    <mergeCell ref="AS12:AV12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="AK13:AN13"/>
+    <mergeCell ref="AO13:AR13"/>
+    <mergeCell ref="AS13:AV13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="AK14:AN14"/>
+    <mergeCell ref="AO14:AR14"/>
+    <mergeCell ref="AS14:AV14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="AK15:AN15"/>
+    <mergeCell ref="AO15:AR15"/>
+    <mergeCell ref="AS15:AV15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="AK16:AN16"/>
+    <mergeCell ref="AO16:AR16"/>
+    <mergeCell ref="AS16:AV16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="AK17:AN17"/>
+    <mergeCell ref="AO17:AR17"/>
+    <mergeCell ref="AS17:AV17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="AK18:AN18"/>
+    <mergeCell ref="AO18:AR18"/>
+    <mergeCell ref="AS18:AV18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="AK19:AN19"/>
+    <mergeCell ref="AO19:AR19"/>
+    <mergeCell ref="AS19:AV19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="AK20:AN20"/>
+    <mergeCell ref="AO20:AR20"/>
+    <mergeCell ref="AS20:AV20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="AK21:AN21"/>
+    <mergeCell ref="AO21:AR21"/>
+    <mergeCell ref="AS21:AV21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="AK22:AN22"/>
+    <mergeCell ref="AO22:AR22"/>
+    <mergeCell ref="AS22:AV22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="AK23:AN23"/>
+    <mergeCell ref="AO23:AR23"/>
+    <mergeCell ref="AS23:AV23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="AK24:AN24"/>
+    <mergeCell ref="AO24:AR24"/>
+    <mergeCell ref="AS24:AV24"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37396,73 +37396,73 @@
       <c r="BE2" s="47"/>
     </row>
     <row r="3" spans="2:57" ht="13.2" customHeight="1">
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="185" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160" t="s">
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183" t="s">
         <v>186</v>
       </c>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160" t="s">
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183" t="s">
         <v>187</v>
       </c>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="160"/>
-      <c r="S3" s="160"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="160"/>
-      <c r="V3" s="160"/>
-      <c r="W3" s="160"/>
-      <c r="X3" s="160"/>
-      <c r="Y3" s="160"/>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="160"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="160"/>
-      <c r="AD3" s="174" t="s">
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="183"/>
+      <c r="AD3" s="186" t="s">
         <v>196</v>
       </c>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="175"/>
-      <c r="AG3" s="175"/>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="175"/>
-      <c r="AJ3" s="175"/>
-      <c r="AK3" s="175"/>
-      <c r="AL3" s="175"/>
-      <c r="AM3" s="175"/>
-      <c r="AN3" s="175"/>
-      <c r="AO3" s="175"/>
-      <c r="AP3" s="175"/>
-      <c r="AQ3" s="175"/>
-      <c r="AR3" s="175"/>
-      <c r="AS3" s="175"/>
-      <c r="AT3" s="175"/>
-      <c r="AU3" s="175"/>
-      <c r="AV3" s="175"/>
-      <c r="AW3" s="175"/>
-      <c r="AX3" s="175"/>
-      <c r="AY3" s="175"/>
-      <c r="AZ3" s="175"/>
-      <c r="BA3" s="175"/>
-      <c r="BB3" s="175"/>
-      <c r="BC3" s="175"/>
-      <c r="BD3" s="175"/>
-      <c r="BE3" s="176"/>
+      <c r="AE3" s="187"/>
+      <c r="AF3" s="187"/>
+      <c r="AG3" s="187"/>
+      <c r="AH3" s="187"/>
+      <c r="AI3" s="187"/>
+      <c r="AJ3" s="187"/>
+      <c r="AK3" s="187"/>
+      <c r="AL3" s="187"/>
+      <c r="AM3" s="187"/>
+      <c r="AN3" s="187"/>
+      <c r="AO3" s="187"/>
+      <c r="AP3" s="187"/>
+      <c r="AQ3" s="187"/>
+      <c r="AR3" s="187"/>
+      <c r="AS3" s="187"/>
+      <c r="AT3" s="187"/>
+      <c r="AU3" s="187"/>
+      <c r="AV3" s="187"/>
+      <c r="AW3" s="187"/>
+      <c r="AX3" s="187"/>
+      <c r="AY3" s="187"/>
+      <c r="AZ3" s="187"/>
+      <c r="BA3" s="187"/>
+      <c r="BB3" s="187"/>
+      <c r="BC3" s="187"/>
+      <c r="BD3" s="187"/>
+      <c r="BE3" s="188"/>
     </row>
     <row r="4" spans="2:57">
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="105" t="s">
         <v>188</v>
       </c>
       <c r="C4" s="51"/>
@@ -37525,67 +37525,67 @@
       <c r="BB4" s="51"/>
       <c r="BC4" s="51"/>
       <c r="BD4" s="51"/>
-      <c r="BE4" s="178"/>
+      <c r="BE4" s="106"/>
     </row>
     <row r="5" spans="2:57" ht="13.8" thickBot="1">
-      <c r="B5" s="179"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="168"/>
-      <c r="M5" s="168"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="169"/>
-      <c r="P5" s="167"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="168"/>
-      <c r="S5" s="168"/>
-      <c r="T5" s="168"/>
-      <c r="U5" s="168"/>
-      <c r="V5" s="168"/>
-      <c r="W5" s="168"/>
-      <c r="X5" s="168"/>
-      <c r="Y5" s="168"/>
-      <c r="Z5" s="168"/>
-      <c r="AA5" s="168"/>
-      <c r="AB5" s="168"/>
-      <c r="AC5" s="169"/>
-      <c r="AD5" s="167" t="s">
+      <c r="B5" s="107"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="102" t="s">
         <v>197</v>
       </c>
-      <c r="AE5" s="168"/>
-      <c r="AF5" s="168"/>
-      <c r="AG5" s="168"/>
-      <c r="AH5" s="168"/>
-      <c r="AI5" s="168"/>
-      <c r="AJ5" s="168"/>
-      <c r="AK5" s="168"/>
-      <c r="AL5" s="168"/>
-      <c r="AM5" s="168"/>
-      <c r="AN5" s="168"/>
-      <c r="AO5" s="168"/>
-      <c r="AP5" s="168"/>
-      <c r="AQ5" s="168"/>
-      <c r="AR5" s="168"/>
-      <c r="AS5" s="168"/>
-      <c r="AT5" s="168"/>
-      <c r="AU5" s="168"/>
-      <c r="AV5" s="168"/>
-      <c r="AW5" s="168"/>
-      <c r="AX5" s="168"/>
-      <c r="AY5" s="168"/>
-      <c r="AZ5" s="168"/>
-      <c r="BA5" s="168"/>
-      <c r="BB5" s="168"/>
-      <c r="BC5" s="168"/>
-      <c r="BD5" s="168"/>
-      <c r="BE5" s="180"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="103"/>
+      <c r="AP5" s="103"/>
+      <c r="AQ5" s="103"/>
+      <c r="AR5" s="103"/>
+      <c r="AS5" s="103"/>
+      <c r="AT5" s="103"/>
+      <c r="AU5" s="103"/>
+      <c r="AV5" s="103"/>
+      <c r="AW5" s="103"/>
+      <c r="AX5" s="103"/>
+      <c r="AY5" s="103"/>
+      <c r="AZ5" s="103"/>
+      <c r="BA5" s="103"/>
+      <c r="BB5" s="103"/>
+      <c r="BC5" s="103"/>
+      <c r="BD5" s="103"/>
+      <c r="BE5" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -37659,188 +37659,188 @@
       <c r="AR2" s="47"/>
     </row>
     <row r="3" spans="2:44" ht="13.2" customHeight="1">
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="197" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="174" t="s">
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="186" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="188"/>
-      <c r="U3" s="174" t="s">
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="187"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="187"/>
+      <c r="T3" s="198"/>
+      <c r="U3" s="186" t="s">
         <v>145</v>
       </c>
-      <c r="V3" s="175"/>
-      <c r="W3" s="175"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="188"/>
-      <c r="AA3" s="174" t="s">
+      <c r="V3" s="187"/>
+      <c r="W3" s="187"/>
+      <c r="X3" s="187"/>
+      <c r="Y3" s="187"/>
+      <c r="Z3" s="198"/>
+      <c r="AA3" s="186" t="s">
         <v>191</v>
       </c>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="175"/>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="175"/>
-      <c r="AG3" s="175"/>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="175"/>
-      <c r="AJ3" s="188"/>
-      <c r="AK3" s="174" t="s">
+      <c r="AB3" s="187"/>
+      <c r="AC3" s="187"/>
+      <c r="AD3" s="187"/>
+      <c r="AE3" s="187"/>
+      <c r="AF3" s="187"/>
+      <c r="AG3" s="187"/>
+      <c r="AH3" s="187"/>
+      <c r="AI3" s="187"/>
+      <c r="AJ3" s="198"/>
+      <c r="AK3" s="186" t="s">
         <v>192</v>
       </c>
-      <c r="AL3" s="175"/>
-      <c r="AM3" s="175"/>
-      <c r="AN3" s="188"/>
-      <c r="AO3" s="174" t="s">
+      <c r="AL3" s="187"/>
+      <c r="AM3" s="187"/>
+      <c r="AN3" s="198"/>
+      <c r="AO3" s="186" t="s">
         <v>193</v>
       </c>
-      <c r="AP3" s="175"/>
-      <c r="AQ3" s="175"/>
-      <c r="AR3" s="176"/>
+      <c r="AP3" s="187"/>
+      <c r="AQ3" s="187"/>
+      <c r="AR3" s="188"/>
     </row>
     <row r="4" spans="2:44">
-      <c r="B4" s="189" t="s">
+      <c r="B4" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="182"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="181" t="s">
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="H4" s="182"/>
-      <c r="I4" s="182"/>
-      <c r="J4" s="182"/>
-      <c r="K4" s="182"/>
-      <c r="L4" s="182"/>
-      <c r="M4" s="182"/>
-      <c r="N4" s="182"/>
-      <c r="O4" s="182"/>
-      <c r="P4" s="182"/>
-      <c r="Q4" s="182"/>
-      <c r="R4" s="182"/>
-      <c r="S4" s="182"/>
-      <c r="T4" s="183"/>
-      <c r="U4" s="181" t="s">
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="V4" s="182"/>
-      <c r="W4" s="182"/>
-      <c r="X4" s="182"/>
-      <c r="Y4" s="182"/>
-      <c r="Z4" s="183"/>
-      <c r="AA4" s="181" t="s">
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="111"/>
+      <c r="AA4" s="109" t="s">
         <v>150</v>
       </c>
-      <c r="AB4" s="182"/>
-      <c r="AC4" s="182"/>
-      <c r="AD4" s="182"/>
-      <c r="AE4" s="182"/>
-      <c r="AF4" s="182"/>
-      <c r="AG4" s="182"/>
-      <c r="AH4" s="182"/>
-      <c r="AI4" s="182"/>
-      <c r="AJ4" s="183"/>
-      <c r="AK4" s="184">
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="110"/>
+      <c r="AE4" s="110"/>
+      <c r="AF4" s="110"/>
+      <c r="AG4" s="110"/>
+      <c r="AH4" s="110"/>
+      <c r="AI4" s="110"/>
+      <c r="AJ4" s="111"/>
+      <c r="AK4" s="192">
         <v>4980</v>
       </c>
-      <c r="AL4" s="185"/>
-      <c r="AM4" s="185"/>
-      <c r="AN4" s="186"/>
-      <c r="AO4" s="184">
+      <c r="AL4" s="193"/>
+      <c r="AM4" s="193"/>
+      <c r="AN4" s="196"/>
+      <c r="AO4" s="192">
         <v>2</v>
       </c>
-      <c r="AP4" s="185"/>
-      <c r="AQ4" s="185"/>
-      <c r="AR4" s="190"/>
+      <c r="AP4" s="193"/>
+      <c r="AQ4" s="193"/>
+      <c r="AR4" s="194"/>
     </row>
     <row r="5" spans="2:44" ht="13.8" thickBot="1">
-      <c r="B5" s="191" t="s">
+      <c r="B5" s="113" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="192"/>
-      <c r="D5" s="192"/>
-      <c r="E5" s="192"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="194" t="s">
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="116" t="s">
         <v>156</v>
       </c>
-      <c r="H5" s="192"/>
-      <c r="I5" s="192"/>
-      <c r="J5" s="192"/>
-      <c r="K5" s="192"/>
-      <c r="L5" s="192"/>
-      <c r="M5" s="192"/>
-      <c r="N5" s="192"/>
-      <c r="O5" s="192"/>
-      <c r="P5" s="192"/>
-      <c r="Q5" s="192"/>
-      <c r="R5" s="192"/>
-      <c r="S5" s="192"/>
-      <c r="T5" s="193"/>
-      <c r="U5" s="194" t="s">
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="114"/>
+      <c r="S5" s="114"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="V5" s="192"/>
-      <c r="W5" s="192"/>
-      <c r="X5" s="192"/>
-      <c r="Y5" s="192"/>
-      <c r="Z5" s="193"/>
-      <c r="AA5" s="194" t="s">
+      <c r="V5" s="114"/>
+      <c r="W5" s="114"/>
+      <c r="X5" s="114"/>
+      <c r="Y5" s="114"/>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="116" t="s">
         <v>194</v>
       </c>
-      <c r="AB5" s="192"/>
-      <c r="AC5" s="192"/>
-      <c r="AD5" s="192"/>
-      <c r="AE5" s="192"/>
-      <c r="AF5" s="192"/>
-      <c r="AG5" s="192"/>
-      <c r="AH5" s="192"/>
-      <c r="AI5" s="192"/>
-      <c r="AJ5" s="193"/>
-      <c r="AK5" s="195">
+      <c r="AB5" s="114"/>
+      <c r="AC5" s="114"/>
+      <c r="AD5" s="114"/>
+      <c r="AE5" s="114"/>
+      <c r="AF5" s="114"/>
+      <c r="AG5" s="114"/>
+      <c r="AH5" s="114"/>
+      <c r="AI5" s="114"/>
+      <c r="AJ5" s="115"/>
+      <c r="AK5" s="189">
         <v>2980</v>
       </c>
-      <c r="AL5" s="196"/>
-      <c r="AM5" s="196"/>
-      <c r="AN5" s="197"/>
-      <c r="AO5" s="195">
+      <c r="AL5" s="190"/>
+      <c r="AM5" s="190"/>
+      <c r="AN5" s="195"/>
+      <c r="AO5" s="189">
         <v>3</v>
       </c>
-      <c r="AP5" s="196"/>
-      <c r="AQ5" s="196"/>
-      <c r="AR5" s="198"/>
+      <c r="AP5" s="190"/>
+      <c r="AQ5" s="190"/>
+      <c r="AR5" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:T3"/>
+    <mergeCell ref="U3:Z3"/>
+    <mergeCell ref="AA3:AJ3"/>
+    <mergeCell ref="AK3:AN3"/>
     <mergeCell ref="AO3:AR3"/>
     <mergeCell ref="AO5:AR5"/>
     <mergeCell ref="AO4:AR4"/>
     <mergeCell ref="AK5:AN5"/>
     <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:T3"/>
-    <mergeCell ref="U3:Z3"/>
-    <mergeCell ref="AA3:AJ3"/>
-    <mergeCell ref="AK3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37866,7 +37866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E01B9F1-294F-4105-8805-FC9884811F34}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.8" customHeight="1"/>
   <sheetData/>
